--- a/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5_马丁组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="115">
   <si>
     <t>No</t>
   </si>
@@ -531,6 +531,72 @@
     </rPh>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
+  <si>
+    <t>每天签约单量统计</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付量统计</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线用户监控</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器</t>
+    <rPh sb="0" eb="1">
+      <t>ding'shi'qi</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>游侠</t>
+    <rPh sb="0" eb="1">
+      <t>you'xia</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹</t>
+    <rPh sb="0" eb="1">
+      <t>jie'b</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构</t>
+    <rPh sb="0" eb="1">
+      <t>jia'gou</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+  </si>
+  <si>
+    <t>架构组</t>
+  </si>
+  <si>
+    <t>自测</t>
+    <rPh sb="0" eb="1">
+      <t>zi'c</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
+    <rPh sb="0" eb="1">
+      <t>neng</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2921</t>
+  </si>
 </sst>
 </file>
 
@@ -548,6 +614,7 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -555,6 +622,42 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -562,104 +665,76 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="华文仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="华文仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="华文仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -667,12 +742,12 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -680,11 +755,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1159,6 +1236,21 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1168,12 +1260,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1184,21 +1276,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="13" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1231,7 +1308,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1575,7 +1652,7 @@
   <dimension ref="A1:X161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1729,7 +1806,7 @@
       <c r="R2" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="87" t="s">
+      <c r="S2" s="78" t="s">
         <v>79</v>
       </c>
       <c r="T2" s="66"/>
@@ -1741,25 +1818,61 @@
       <c r="X2" s="71"/>
     </row>
     <row r="3" spans="1:24" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
+      <c r="A3" s="50">
+        <v>2</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="58">
+        <v>42808</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="58">
+        <v>42808</v>
+      </c>
       <c r="K3" s="57"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="55"/>
+      <c r="L3" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="P3" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q3" s="58">
+        <v>42808</v>
+      </c>
+      <c r="R3" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="S3" s="78" t="s">
+        <v>114</v>
+      </c>
       <c r="T3" s="55"/>
       <c r="U3" s="55"/>
       <c r="V3" s="65"/>
@@ -1767,25 +1880,61 @@
       <c r="X3" s="71"/>
     </row>
     <row r="4" spans="1:24" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
+      <c r="A4" s="50">
+        <v>3</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="58">
+        <v>42808</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="58">
+        <v>42808</v>
+      </c>
       <c r="K4" s="57"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="55"/>
+      <c r="L4" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="58">
+        <v>42808</v>
+      </c>
+      <c r="R4" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="78" t="s">
+        <v>114</v>
+      </c>
       <c r="T4" s="55"/>
       <c r="U4" s="55"/>
       <c r="V4" s="65"/>
@@ -1793,25 +1942,61 @@
       <c r="X4" s="71"/>
     </row>
     <row r="5" spans="1:24" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
+      <c r="A5" s="50">
+        <v>4</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="58">
+        <v>42808</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="58">
+        <v>42808</v>
+      </c>
       <c r="K5" s="57"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="55"/>
+      <c r="L5" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="N5" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="P5" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q5" s="58">
+        <v>42808</v>
+      </c>
+      <c r="R5" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" s="78" t="s">
+        <v>114</v>
+      </c>
       <c r="T5" s="55"/>
       <c r="U5" s="55"/>
       <c r="V5" s="65"/>
@@ -5605,12 +5790,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 G1:G1048576 V1:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 V1:V1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="S3" r:id="rId2"/>
+    <hyperlink ref="S4" r:id="rId3"/>
+    <hyperlink ref="S5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -5772,7 +5960,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5788,19 +5976,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5838,13 +6026,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="80">
+      <c r="A3" s="85">
         <v>1</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="80" t="s">
         <v>83</v>
       </c>
       <c r="D3" s="21" t="s">
@@ -5859,25 +6047,25 @@
       <c r="G3" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="91">
+      <c r="H3" s="82">
         <v>42811</v>
       </c>
-      <c r="I3" s="91">
+      <c r="I3" s="82">
         <v>42811</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.15">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="89" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="81" t="s">
         <v>89</v>
       </c>
       <c r="F4" s="23" t="s">
@@ -5886,19 +6074,19 @@
       <c r="G4" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="91">
+      <c r="H4" s="82">
         <v>42811</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="82">
         <v>42811</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="89" t="s">
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="80" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="21" t="s">
@@ -5913,19 +6101,19 @@
       <c r="G5" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="91">
+      <c r="H5" s="82">
         <v>42811</v>
       </c>
-      <c r="I5" s="91">
+      <c r="I5" s="82">
         <v>42811</v>
       </c>
       <c r="J5" s="26"/>
       <c r="K5" s="27"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="23"/>
@@ -5936,8 +6124,8 @@
       <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5949,8 +6137,8 @@
       <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5962,8 +6150,8 @@
       <c r="K8" s="27"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5975,8 +6163,8 @@
       <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5988,8 +6176,8 @@
       <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="20"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -6035,36 +6223,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6363,36 +6551,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6691,36 +6879,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7021,36 +7209,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5_马丁组.xlsx
@@ -1652,7 +1652,7 @@
   <dimension ref="A1:X161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
